--- a/biology/Neurosciences/Stefano_Sandrone/Stefano_Sandrone.xlsx
+++ b/biology/Neurosciences/Stefano_Sandrone/Stefano_Sandrone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stefano Sandrone (1988) est un chercheur en neurosciences italien, Teaching Fellow  à l’Imperial College London.
 </t>
@@ -511,13 +523,15 @@
           <t>Vie et œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stefano Sandrone est né à Canelli, Italie, le 1er février 1988, et a obtenu un doctorat en neurosciences au King's College London au Royaume-Uni, où il a commencé sa carrière comme teaching fellow[1].
-En 2014, il a été sélectionné comme jeune scientifique pour la 64e Rencontre des lauréats du prix Nobel à Lindau en physiologie ou médecine[2], qui a réuni 37 lauréats du prix Nobel[3], et est apparu dans la liste du magazine Wired citant les « Italiens les plus prometteurs moins de 35 ans »[4]. 
-En 2015, il a coécrit le livre intitulé Brain Renaissance[5], et, pour cela, il a remporté le Prix Biennal du Meilleur Livre de l'Histoire des Neurosciences[6] présenté par la Société internationale pour l’histoire des neurosciences[7]. Il est également apparu en tant que contributeur à la 41e édition du Gray's Anatomy[8].
-En 2016, Sandrone a reçu le prix H. Richard Tyler présenté par l’Académie américaine de neurologie[9], et l'année suivante il a été élu vice-président de la section d'histoire de la neurologie au sein de la même académie[10], devenant ainsi le plus jeune vice-président de l’Académie américaine de neurologie[11]. En 2017, il a également été reconnu comme Fellow de la Higher Education Academy[12].
-Les travaux de Sandrone incluent la redécouverte du manuscrit de la première expérience neuroimagerie fonctionnelle[13], qui a été présenté dans plusieurs magazines et journaux[14],[15],[16],[17],[18],[19],[20].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stefano Sandrone est né à Canelli, Italie, le 1er février 1988, et a obtenu un doctorat en neurosciences au King's College London au Royaume-Uni, où il a commencé sa carrière comme teaching fellow.
+En 2014, il a été sélectionné comme jeune scientifique pour la 64e Rencontre des lauréats du prix Nobel à Lindau en physiologie ou médecine, qui a réuni 37 lauréats du prix Nobel, et est apparu dans la liste du magazine Wired citant les « Italiens les plus prometteurs moins de 35 ans ». 
+En 2015, il a coécrit le livre intitulé Brain Renaissance, et, pour cela, il a remporté le Prix Biennal du Meilleur Livre de l'Histoire des Neurosciences présenté par la Société internationale pour l’histoire des neurosciences. Il est également apparu en tant que contributeur à la 41e édition du Gray's Anatomy.
+En 2016, Sandrone a reçu le prix H. Richard Tyler présenté par l’Académie américaine de neurologie, et l'année suivante il a été élu vice-président de la section d'histoire de la neurologie au sein de la même académie, devenant ainsi le plus jeune vice-président de l’Académie américaine de neurologie. En 2017, il a également été reconnu comme Fellow de la Higher Education Academy.
+Les travaux de Sandrone incluent la redécouverte du manuscrit de la première expérience neuroimagerie fonctionnelle, qui a été présenté dans plusieurs magazines et journaux.
 </t>
         </is>
       </c>
